--- a/R/Database/Relacao_Agregacao_Ox.xlsx
+++ b/R/Database/Relacao_Agregacao_Ox.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\Git\Tese\R\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\Tese\R\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D8CFA5-2E8E-4ECB-838E-E8130E43CEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54FBA1B-97C3-4A4E-B6CE-7B7085AE4612}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6185EA36-7A70-44FE-85AC-3F5F45AB6F3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6185EA36-7A70-44FE-85AC-3F5F45AB6F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionario" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BD12__Consulta">#REF!</definedName>
   </definedNames>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>RegiaoAgregacao</t>
   </si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Pop</t>
   </si>
 </sst>
 </file>
@@ -111,21 +111,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TabelaCompleta"/>
-      <sheetName val="Arranjos Populacionais"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,18 +410,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C72D158-63FC-40BE-AEE2-C891988E6B1A}">
-  <dimension ref="A1:C553"/>
+  <dimension ref="A1:D553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +432,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11006</v>
       </c>
@@ -458,8 +447,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>249644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11003</v>
       </c>
@@ -471,8 +463,11 @@
         <f>C2+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>201599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11005</v>
       </c>
@@ -484,8 +479,11 @@
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>75248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11001</v>
       </c>
@@ -497,8 +495,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>648872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11008</v>
       </c>
@@ -510,8 +511,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>54053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11007</v>
       </c>
@@ -523,8 +527,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>157201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11002</v>
       </c>
@@ -536,8 +543,11 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>83432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11004</v>
       </c>
@@ -549,8 +559,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>317230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12004</v>
       </c>
@@ -562,8 +575,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>468316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12005</v>
       </c>
@@ -575,8 +591,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>66106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12001</v>
       </c>
@@ -588,8 +607,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>145544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12002</v>
       </c>
@@ -601,8 +623,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>79484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12003</v>
       </c>
@@ -614,8 +639,11 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>57237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13005</v>
       </c>
@@ -627,8 +655,11 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>91235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13003</v>
       </c>
@@ -640,8 +671,11 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>248118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13006</v>
       </c>
@@ -653,8 +687,11 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>174835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13013</v>
       </c>
@@ -666,8 +703,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>191878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13007</v>
       </c>
@@ -679,8 +719,11 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>2369017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13001</v>
       </c>
@@ -692,8 +735,11 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>112645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13010</v>
       </c>
@@ -705,8 +751,11 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>280982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13011</v>
       </c>
@@ -718,8 +767,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>53328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13012</v>
       </c>
@@ -731,8 +783,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>77422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13004</v>
       </c>
@@ -744,8 +799,11 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>147121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13009</v>
       </c>
@@ -757,8 +815,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>174140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13002</v>
       </c>
@@ -770,8 +831,11 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>23137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13008</v>
       </c>
@@ -783,8 +847,11 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>64977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14001</v>
       </c>
@@ -796,8 +863,11 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>365901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14002</v>
       </c>
@@ -809,8 +879,11 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>48362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14003</v>
       </c>
@@ -822,8 +895,11 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>47747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14004</v>
       </c>
@@ -835,8 +911,11 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>52219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15011</v>
       </c>
@@ -848,8 +927,11 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>478943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15017</v>
       </c>
@@ -861,8 +943,11 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>334228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15012</v>
       </c>
@@ -874,8 +959,11 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>325988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15005</v>
       </c>
@@ -887,8 +975,11 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>223291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15019</v>
       </c>
@@ -900,8 +991,11 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>307967</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>15002</v>
       </c>
@@ -913,8 +1007,11 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>510742</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16004</v>
       </c>
@@ -926,8 +1023,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>114582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>15015</v>
       </c>
@@ -939,8 +1039,11 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>297477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>15007</v>
       </c>
@@ -952,8 +1055,11 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>2280761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>15010</v>
       </c>
@@ -965,8 +1071,11 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>409039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15013</v>
       </c>
@@ -978,8 +1087,11 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>465819</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>15014</v>
       </c>
@@ -991,8 +1103,11 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>205788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15004</v>
       </c>
@@ -1004,8 +1119,11 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>147088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15018</v>
       </c>
@@ -1017,8 +1135,11 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>205857</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15020</v>
       </c>
@@ -1030,8 +1151,11 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>319770</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>15016</v>
       </c>
@@ -1043,8 +1167,11 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>368588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15008</v>
       </c>
@@ -1056,8 +1183,11 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>329626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15006</v>
       </c>
@@ -1069,8 +1199,11 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>170786</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>15009</v>
       </c>
@@ -1082,8 +1215,11 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>262427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15022</v>
       </c>
@@ -1095,8 +1231,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>155323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15001</v>
       </c>
@@ -1108,8 +1247,11 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>193951</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>15021</v>
       </c>
@@ -1121,8 +1263,11 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>202412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>15003</v>
       </c>
@@ -1134,8 +1279,11 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>39246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16002</v>
       </c>
@@ -1147,8 +1295,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>29010</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16001</v>
       </c>
@@ -1160,8 +1311,11 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>35237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16003</v>
       </c>
@@ -1173,8 +1327,11 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>636748</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>17003</v>
       </c>
@@ -1186,8 +1343,11 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>154671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>21019</v>
       </c>
@@ -1199,8 +1359,11 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>110081</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>17005</v>
       </c>
@@ -1212,8 +1375,11 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>148490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17008</v>
       </c>
@@ -1225,8 +1391,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>124164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17001</v>
       </c>
@@ -1238,8 +1407,11 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>229783</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>17006</v>
       </c>
@@ -1251,8 +1423,11 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>377846</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>17002</v>
       </c>
@@ -1264,8 +1439,11 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>290163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>17004</v>
       </c>
@@ -1277,8 +1455,11 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>125805</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>17007</v>
       </c>
@@ -1290,8 +1471,11 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>78618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>21009</v>
       </c>
@@ -1303,8 +1487,11 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>589439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>21016</v>
       </c>
@@ -1316,8 +1503,11 @@
         <f t="shared" ref="C68:C131" si="3">C67+1</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>92230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>21013</v>
       </c>
@@ -1329,8 +1519,11 @@
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>118791</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>21001</v>
       </c>
@@ -1342,8 +1535,11 @@
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>187688</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>21008</v>
       </c>
@@ -1355,8 +1551,11 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>654404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>21015</v>
       </c>
@@ -1368,8 +1567,11 @@
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>273399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>21020</v>
       </c>
@@ -1381,8 +1583,11 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>147145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>21007</v>
       </c>
@@ -1394,8 +1599,11 @@
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>212773</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>21005</v>
       </c>
@@ -1407,8 +1615,11 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>620276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>21014</v>
       </c>
@@ -1420,8 +1631,11 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>208358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>21011</v>
       </c>
@@ -1433,8 +1647,11 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>330611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>21003</v>
       </c>
@@ -1446,8 +1663,11 @@
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>174476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>21010</v>
       </c>
@@ -1459,8 +1679,11 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>416384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>22009</v>
       </c>
@@ -1472,8 +1695,11 @@
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>141456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>21004</v>
       </c>
@@ -1485,8 +1711,11 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>132677</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>22007</v>
       </c>
@@ -1498,8 +1727,11 @@
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>45116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>21017</v>
       </c>
@@ -1511,8 +1743,11 @@
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>271041</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>21006</v>
       </c>
@@ -1524,8 +1759,11 @@
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>232934</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>21018</v>
       </c>
@@ -1537,8 +1775,11 @@
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>186958</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>21012</v>
       </c>
@@ -1550,8 +1791,11 @@
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>195820</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>21021</v>
       </c>
@@ -1563,8 +1807,11 @@
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>65483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>21002</v>
       </c>
@@ -1576,8 +1823,11 @@
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>1409162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>22005</v>
       </c>
@@ -1589,8 +1839,11 @@
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>144951</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>22003</v>
       </c>
@@ -1602,8 +1855,11 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>1203898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>22015</v>
       </c>
@@ -1615,8 +1871,11 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>260607</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>22014</v>
       </c>
@@ -1628,8 +1887,11 @@
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>59681</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>22004</v>
       </c>
@@ -1641,8 +1903,11 @@
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>224301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>22010</v>
       </c>
@@ -1654,8 +1919,11 @@
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>91491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22011</v>
       </c>
@@ -1667,8 +1935,11 @@
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>139668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>22008</v>
       </c>
@@ -1680,8 +1951,11 @@
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>41528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>22006</v>
       </c>
@@ -1693,8 +1967,11 @@
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>105110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>22013</v>
       </c>
@@ -1706,8 +1983,11 @@
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>204707</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>22012</v>
       </c>
@@ -1719,8 +1999,11 @@
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>84775</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>22001</v>
       </c>
@@ -1732,8 +2015,11 @@
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>338403</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>22002</v>
       </c>
@@ -1745,8 +2031,11 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>314320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>26001</v>
       </c>
@@ -1758,8 +2047,11 @@
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>337084</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>23033</v>
       </c>
@@ -1771,8 +2063,11 @@
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>104941</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>23013</v>
       </c>
@@ -1784,8 +2079,11 @@
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <v>195198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>23001</v>
       </c>
@@ -1797,8 +2095,11 @@
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>382297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>23021</v>
       </c>
@@ -1810,8 +2111,11 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106">
+        <v>223688</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>23020</v>
       </c>
@@ -1823,8 +2127,11 @@
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107">
+        <v>149983</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>23004</v>
       </c>
@@ -1836,8 +2143,11 @@
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108">
+        <v>26205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>23030</v>
       </c>
@@ -1849,8 +2159,11 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109">
+        <v>57537</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>23023</v>
       </c>
@@ -1862,8 +2175,11 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>327836</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>23008</v>
       </c>
@@ -1875,8 +2191,11 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>223562</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>23027</v>
       </c>
@@ -1888,8 +2207,11 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <v>99730</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23011</v>
       </c>
@@ -1901,8 +2223,11 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <v>89931</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>23016</v>
       </c>
@@ -1914,8 +2239,11 @@
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <v>3593128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>23022</v>
       </c>
@@ -1927,8 +2255,11 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <v>116555</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>23018</v>
       </c>
@@ -1940,8 +2271,11 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116">
+        <v>246215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>23029</v>
       </c>
@@ -1953,8 +2287,11 @@
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117">
+        <v>98807</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>23031</v>
       </c>
@@ -1966,8 +2303,11 @@
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118">
+        <v>93244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>23028</v>
       </c>
@@ -1979,8 +2319,11 @@
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>57568</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>23019</v>
       </c>
@@ -1992,8 +2335,11 @@
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <v>281994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>23032</v>
       </c>
@@ -2005,8 +2351,11 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <v>567407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>23014</v>
       </c>
@@ -2018,8 +2367,11 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122">
+        <v>65290</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>23015</v>
       </c>
@@ -2031,8 +2383,11 @@
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <v>143723</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>23012</v>
       </c>
@@ -2044,8 +2399,11 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124">
+        <v>131374</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>23005</v>
       </c>
@@ -2057,8 +2415,11 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <v>407279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>23002</v>
       </c>
@@ -2070,8 +2431,11 @@
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126">
+        <v>313467</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>23007</v>
       </c>
@@ -2083,8 +2447,11 @@
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127">
+        <v>73826</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>23026</v>
       </c>
@@ -2096,8 +2463,11 @@
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128">
+        <v>230641</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>23003</v>
       </c>
@@ -2109,8 +2479,11 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129">
+        <v>58785</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>23025</v>
       </c>
@@ -2122,8 +2495,11 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>23017</v>
       </c>
@@ -2135,8 +2511,11 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131">
+        <v>134550</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>23006</v>
       </c>
@@ -2148,8 +2527,11 @@
         <f t="shared" ref="C132:C195" si="5">C131+1</f>
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132">
+        <v>139483</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>23010</v>
       </c>
@@ -2161,8 +2543,11 @@
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133">
+        <v>108319</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>23024</v>
       </c>
@@ -2174,8 +2559,11 @@
         <f t="shared" si="5"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134">
+        <v>63680</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>23009</v>
       </c>
@@ -2187,8 +2575,11 @@
         <f t="shared" si="5"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135">
+        <v>113712</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>24012</v>
       </c>
@@ -2200,8 +2591,11 @@
         <f t="shared" si="5"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136">
+        <v>125086</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>24004</v>
       </c>
@@ -2213,8 +2607,11 @@
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137">
+        <v>153746</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>24009</v>
       </c>
@@ -2226,8 +2623,11 @@
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138">
+        <v>53263</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>24005</v>
       </c>
@@ -2239,8 +2639,11 @@
         <f t="shared" si="5"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139">
+        <v>67026</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24006</v>
       </c>
@@ -2252,8 +2655,11 @@
         <f t="shared" si="5"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140">
+        <v>119170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24007</v>
       </c>
@@ -2265,8 +2671,11 @@
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141">
+        <v>67698</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>24002</v>
       </c>
@@ -2278,8 +2687,11 @@
         <f t="shared" si="5"/>
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142">
+        <v>76029</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24001</v>
       </c>
@@ -2291,8 +2703,11 @@
         <f t="shared" si="5"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143">
+        <v>372808</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>24019</v>
       </c>
@@ -2304,8 +2719,11 @@
         <f t="shared" si="5"/>
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144">
+        <v>141335</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>24003</v>
       </c>
@@ -2317,8 +2735,11 @@
         <f t="shared" si="5"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145">
+        <v>41382</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>24014</v>
       </c>
@@ -2330,8 +2751,11 @@
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146">
+        <v>143433</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>24013</v>
       </c>
@@ -2343,8 +2767,11 @@
         <f t="shared" si="5"/>
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147">
+        <v>67747</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>24010</v>
       </c>
@@ -2356,8 +2783,11 @@
         <f t="shared" si="5"/>
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148">
+        <v>64070</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>24015</v>
       </c>
@@ -2369,8 +2799,11 @@
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149">
+        <v>249855</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>24008</v>
       </c>
@@ -2382,8 +2815,11 @@
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150">
+        <v>58698</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>24011</v>
       </c>
@@ -2395,8 +2831,11 @@
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151">
+        <v>105140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24017</v>
       </c>
@@ -2408,8 +2847,11 @@
         <f t="shared" si="5"/>
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152">
+        <v>143962</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24018</v>
       </c>
@@ -2421,8 +2863,11 @@
         <f t="shared" si="5"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153">
+        <v>1333153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>24016</v>
       </c>
@@ -2434,8 +2879,11 @@
         <f t="shared" si="5"/>
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154">
+        <v>91397</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>25007</v>
       </c>
@@ -2447,8 +2895,11 @@
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155">
+        <v>121726</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>25005</v>
       </c>
@@ -2460,8 +2911,11 @@
         <f t="shared" si="5"/>
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <v>71256</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>25015</v>
       </c>
@@ -2473,8 +2927,11 @@
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157">
+        <v>94846</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>25016</v>
       </c>
@@ -2486,8 +2943,11 @@
         <f t="shared" si="5"/>
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158">
+        <v>170916</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>25011</v>
       </c>
@@ -2499,8 +2959,11 @@
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159">
+        <v>66666</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>25012</v>
       </c>
@@ -2512,8 +2975,11 @@
         <f t="shared" si="5"/>
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160">
+        <v>127609</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>25023</v>
       </c>
@@ -2525,8 +2991,11 @@
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161">
+        <v>60067</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>25010</v>
       </c>
@@ -2538,8 +3007,11 @@
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162">
+        <v>127710</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>25003</v>
       </c>
@@ -2551,8 +3023,11 @@
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163">
+        <v>189080</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>25013</v>
       </c>
@@ -2564,8 +3039,11 @@
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164">
+        <v>117457</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>25004</v>
       </c>
@@ -2577,8 +3055,11 @@
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165">
+        <v>134060</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>25014</v>
       </c>
@@ -2590,8 +3071,11 @@
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166">
+        <v>57342</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>25019</v>
       </c>
@@ -2603,8 +3087,11 @@
         <f t="shared" si="5"/>
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <v>54547</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>25020</v>
       </c>
@@ -2616,8 +3103,11 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168">
+        <v>151525</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>25009</v>
       </c>
@@ -2629,8 +3119,11 @@
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169">
+        <v>78765</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>25022</v>
       </c>
@@ -2642,8 +3135,11 @@
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170">
+        <v>1138419</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>25001</v>
       </c>
@@ -2655,8 +3151,11 @@
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171">
+        <v>122649</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>25002</v>
       </c>
@@ -2668,8 +3167,11 @@
         <f t="shared" si="5"/>
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172">
+        <v>176608</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>25006</v>
       </c>
@@ -2681,8 +3183,11 @@
         <f t="shared" si="5"/>
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173">
+        <v>85957</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>25017</v>
       </c>
@@ -2694,8 +3199,11 @@
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174">
+        <v>531857</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>25018</v>
       </c>
@@ -2707,8 +3215,11 @@
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175">
+        <v>111394</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>25021</v>
       </c>
@@ -2720,8 +3231,11 @@
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176">
+        <v>128807</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25008</v>
       </c>
@@ -2733,8 +3247,11 @@
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177">
+        <v>41036</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>26013</v>
       </c>
@@ -2746,8 +3263,11 @@
         <f t="shared" si="5"/>
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178">
+        <v>546361</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>26017</v>
       </c>
@@ -2759,8 +3279,11 @@
         <f t="shared" si="5"/>
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179">
+        <v>3995949</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>26003</v>
       </c>
@@ -2772,8 +3295,11 @@
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180">
+        <v>329371</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>26005</v>
       </c>
@@ -2785,8 +3311,11 @@
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181">
+        <v>720669</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>26012</v>
       </c>
@@ -2798,8 +3327,11 @@
         <f t="shared" si="5"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182">
+        <v>223671</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>26015</v>
       </c>
@@ -2811,8 +3343,11 @@
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183">
+        <v>575703</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>26007</v>
       </c>
@@ -2824,8 +3359,11 @@
         <f t="shared" si="5"/>
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184">
+        <v>193562</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>26008</v>
       </c>
@@ -2837,8 +3375,11 @@
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185">
+        <v>903158</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>26011</v>
       </c>
@@ -2850,8 +3391,11 @@
         <f t="shared" si="5"/>
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186">
+        <v>485322</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>26004</v>
       </c>
@@ -2863,8 +3407,11 @@
         <f t="shared" si="5"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187">
+        <v>229591</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>26006</v>
       </c>
@@ -2876,8 +3423,11 @@
         <f t="shared" si="5"/>
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188">
+        <v>145717</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>26010</v>
       </c>
@@ -2889,8 +3439,11 @@
         <f t="shared" si="5"/>
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <v>259209</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>26009</v>
       </c>
@@ -2902,8 +3455,11 @@
         <f t="shared" si="5"/>
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>309912</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>26002</v>
       </c>
@@ -2915,8 +3471,11 @@
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191">
+        <v>170461</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>26014</v>
       </c>
@@ -2928,8 +3487,11 @@
         <f t="shared" si="5"/>
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192">
+        <v>228636</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>26019</v>
       </c>
@@ -2941,8 +3503,11 @@
         <f t="shared" si="5"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>27010</v>
       </c>
@@ -2954,8 +3519,11 @@
         <f t="shared" si="5"/>
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194">
+        <v>93072</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>27001</v>
       </c>
@@ -2967,8 +3535,11 @@
         <f t="shared" si="5"/>
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195">
+        <v>93302</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>27012</v>
       </c>
@@ -2980,8 +3551,11 @@
         <f t="shared" ref="C196:C259" si="7">C195+1</f>
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196">
+        <v>308747</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>27006</v>
       </c>
@@ -2993,8 +3567,11 @@
         <f t="shared" si="7"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197">
+        <v>442594</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>27009</v>
       </c>
@@ -3006,8 +3583,11 @@
         <f t="shared" si="7"/>
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198">
+        <v>302813</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>27011</v>
       </c>
@@ -3019,8 +3599,11 @@
         <f t="shared" si="7"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199">
+        <v>1266726</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>27004</v>
       </c>
@@ -3032,8 +3615,11 @@
         <f t="shared" si="7"/>
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <v>97307</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>27005</v>
       </c>
@@ -3045,8 +3631,11 @@
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201">
+        <v>181950</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>27003</v>
       </c>
@@ -3058,8 +3647,11 @@
         <f t="shared" si="7"/>
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202">
+        <v>180328</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>27008</v>
       </c>
@@ -3071,8 +3663,11 @@
         <f t="shared" si="7"/>
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203">
+        <v>153723</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>27002</v>
       </c>
@@ -3084,8 +3679,11 @@
         <f t="shared" si="7"/>
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204">
+        <v>86817</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>27013</v>
       </c>
@@ -3097,8 +3695,11 @@
         <f t="shared" si="7"/>
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205">
+        <v>151023</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>27007</v>
       </c>
@@ -3110,8 +3711,11 @@
         <f t="shared" si="7"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206">
+        <v>40171</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>28007</v>
       </c>
@@ -3123,8 +3727,11 @@
         <f t="shared" si="7"/>
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207">
+        <v>76359</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>28003</v>
       </c>
@@ -3136,8 +3743,11 @@
         <f t="shared" si="7"/>
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208">
+        <v>67143</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>28011</v>
       </c>
@@ -3149,8 +3759,11 @@
         <f t="shared" si="7"/>
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209">
+        <v>1038808</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>28012</v>
       </c>
@@ -3162,8 +3775,11 @@
         <f t="shared" si="7"/>
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210">
+        <v>164786</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>28004</v>
       </c>
@@ -3175,8 +3791,11 @@
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <v>172695</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>28001</v>
       </c>
@@ -3188,8 +3807,11 @@
         <f t="shared" si="7"/>
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212">
+        <v>170971</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>28008</v>
       </c>
@@ -3201,8 +3823,11 @@
         <f t="shared" si="7"/>
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213">
+        <v>37641</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>28002</v>
       </c>
@@ -3214,8 +3839,11 @@
         <f t="shared" si="7"/>
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214">
+        <v>73944</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>28013</v>
       </c>
@@ -3227,8 +3855,11 @@
         <f t="shared" si="7"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215">
+        <v>134095</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>28009</v>
       </c>
@@ -3240,8 +3871,11 @@
         <f t="shared" si="7"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216">
+        <v>59078</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>28006</v>
       </c>
@@ -3253,8 +3887,11 @@
         <f t="shared" si="7"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217">
+        <v>123183</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>28005</v>
       </c>
@@ -3266,8 +3903,11 @@
         <f t="shared" si="7"/>
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218">
+        <v>116034</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>28010</v>
       </c>
@@ -3279,8 +3919,11 @@
         <f t="shared" si="7"/>
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219">
+        <v>12086</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>29023</v>
       </c>
@@ -3292,8 +3935,11 @@
         <f t="shared" si="7"/>
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220">
+        <v>271594</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>29005</v>
       </c>
@@ -3305,8 +3951,11 @@
         <f t="shared" si="7"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221">
+        <v>184822</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>29017</v>
       </c>
@@ -3318,8 +3967,11 @@
         <f t="shared" si="7"/>
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <v>338298</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>29015</v>
       </c>
@@ -3331,8 +3983,11 @@
         <f t="shared" si="7"/>
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223">
+        <v>340063</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>29012</v>
       </c>
@@ -3344,8 +3999,11 @@
         <f t="shared" si="7"/>
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224">
+        <v>1091035</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>29024</v>
       </c>
@@ -3357,8 +4015,11 @@
         <f t="shared" si="7"/>
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225">
+        <v>537482</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>29032</v>
       </c>
@@ -3370,8 +4031,11 @@
         <f t="shared" si="7"/>
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226">
+        <v>812150</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>29031</v>
       </c>
@@ -3383,8 +4047,11 @@
         <f t="shared" si="7"/>
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227">
+        <v>1049348</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>29019</v>
       </c>
@@ -3396,8 +4063,11 @@
         <f t="shared" si="7"/>
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228">
+        <v>142019</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>29009</v>
       </c>
@@ -3409,8 +4079,11 @@
         <f t="shared" si="7"/>
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229">
+        <v>406243</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>29028</v>
       </c>
@@ -3422,8 +4095,11 @@
         <f t="shared" si="7"/>
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230">
+        <v>669534</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>29008</v>
       </c>
@@ -3435,8 +4111,11 @@
         <f t="shared" si="7"/>
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231">
+        <v>310949</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>29002</v>
       </c>
@@ -3448,8 +4127,11 @@
         <f t="shared" si="7"/>
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232">
+        <v>123104</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>29027</v>
       </c>
@@ -3461,8 +4143,11 @@
         <f t="shared" si="7"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <v>242336</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>29016</v>
       </c>
@@ -3474,8 +4159,11 @@
         <f t="shared" si="7"/>
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234">
+        <v>451299</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>29020</v>
       </c>
@@ -3487,8 +4175,11 @@
         <f t="shared" si="7"/>
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235">
+        <v>588529</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>29001</v>
       </c>
@@ -3500,8 +4191,11 @@
         <f t="shared" si="7"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236">
+        <v>337316</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>29011</v>
       </c>
@@ -3513,8 +4207,11 @@
         <f t="shared" si="7"/>
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237">
+        <v>247096</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>29006</v>
       </c>
@@ -3526,8 +4223,11 @@
         <f t="shared" si="7"/>
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238">
+        <v>187403</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>29007</v>
       </c>
@@ -3539,8 +4239,11 @@
         <f t="shared" si="7"/>
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239">
+        <v>185237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>29022</v>
       </c>
@@ -3552,8 +4255,11 @@
         <f t="shared" si="7"/>
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240">
+        <v>200064</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>29026</v>
       </c>
@@ -3565,8 +4271,11 @@
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241">
+        <v>406639</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>29010</v>
       </c>
@@ -3578,8 +4287,11 @@
         <f t="shared" si="7"/>
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242">
+        <v>288642</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>29030</v>
       </c>
@@ -3591,8 +4303,11 @@
         <f t="shared" si="7"/>
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243">
+        <v>291138</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>29021</v>
       </c>
@@ -3604,8 +4319,11 @@
         <f t="shared" si="7"/>
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <v>3946590</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>29004</v>
       </c>
@@ -3617,8 +4335,11 @@
         <f t="shared" si="7"/>
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245">
+        <v>281409</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>29003</v>
       </c>
@@ -3630,8 +4351,11 @@
         <f t="shared" si="7"/>
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>190215</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>29014</v>
       </c>
@@ -3643,8 +4367,11 @@
         <f t="shared" si="7"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247">
+        <v>313827</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>29018</v>
       </c>
@@ -3656,8 +4383,11 @@
         <f t="shared" si="7"/>
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248">
+        <v>127570</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>29013</v>
       </c>
@@ -3669,8 +4399,11 @@
         <f t="shared" si="7"/>
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249">
+        <v>103119</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>29025</v>
       </c>
@@ -3682,8 +4415,11 @@
         <f t="shared" si="7"/>
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250">
+        <v>104650</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>29029</v>
       </c>
@@ -3695,8 +4431,11 @@
         <f t="shared" si="7"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251">
+        <v>206947</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>31019</v>
       </c>
@@ -3708,8 +4447,11 @@
         <f t="shared" si="7"/>
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252">
+        <v>210378</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>31024</v>
       </c>
@@ -3721,8 +4463,11 @@
         <f t="shared" si="7"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253">
+        <v>103660</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>31061</v>
       </c>
@@ -3734,8 +4479,11 @@
         <f t="shared" si="7"/>
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254">
+        <v>293200</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>31060</v>
       </c>
@@ -3747,8 +4495,11 @@
         <f t="shared" si="7"/>
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255">
+        <v>191825</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>31039</v>
       </c>
@@ -3760,8 +4511,11 @@
         <f t="shared" si="7"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256">
+        <v>589906</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>31036</v>
       </c>
@@ -3773,8 +4527,11 @@
         <f t="shared" si="7"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257">
+        <v>82841</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>31022</v>
       </c>
@@ -3786,8 +4543,11 @@
         <f t="shared" si="7"/>
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258">
+        <v>372349</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>31045</v>
       </c>
@@ -3799,8 +4559,11 @@
         <f t="shared" si="7"/>
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259">
+        <v>118175</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>31016</v>
       </c>
@@ -3812,8 +4575,11 @@
         <f t="shared" ref="C260:C323" si="9">C259+1</f>
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260">
+        <v>122143</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>31005</v>
       </c>
@@ -3825,8 +4591,11 @@
         <f t="shared" si="9"/>
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261">
+        <v>222526</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>31041</v>
       </c>
@@ -3838,8 +4607,11 @@
         <f t="shared" si="9"/>
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262">
+        <v>154773</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>31055</v>
       </c>
@@ -3851,8 +4623,11 @@
         <f t="shared" si="9"/>
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263">
+        <v>76401</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>31054</v>
       </c>
@@ -3864,8 +4639,11 @@
         <f t="shared" si="9"/>
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264">
+        <v>220641</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>31051</v>
       </c>
@@ -3877,8 +4655,11 @@
         <f t="shared" si="9"/>
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265">
+        <v>367325</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>31066</v>
       </c>
@@ -3890,8 +4671,11 @@
         <f t="shared" si="9"/>
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D266">
+        <v>234496</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>31049</v>
       </c>
@@ -3903,8 +4687,11 @@
         <f t="shared" si="9"/>
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D267">
+        <v>240125</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>31059</v>
       </c>
@@ -3916,8 +4703,11 @@
         <f t="shared" si="9"/>
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D268">
+        <v>236484</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>31014</v>
       </c>
@@ -3929,8 +4719,11 @@
         <f t="shared" si="9"/>
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D269">
+        <v>188638</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>31037</v>
       </c>
@@ -3942,8 +4735,11 @@
         <f t="shared" si="9"/>
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D270">
+        <v>437535</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>31047</v>
       </c>
@@ -3955,8 +4751,11 @@
         <f t="shared" si="9"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D271">
+        <v>236180</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>31062</v>
       </c>
@@ -3968,8 +4767,11 @@
         <f t="shared" si="9"/>
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D272">
+        <v>231577</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>31031</v>
       </c>
@@ -3981,8 +4783,11 @@
         <f t="shared" si="9"/>
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D273">
+        <v>403359</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>31028</v>
       </c>
@@ -3994,8 +4799,11 @@
         <f t="shared" si="9"/>
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D274">
+        <v>85684</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>31011</v>
       </c>
@@ -4007,8 +4815,11 @@
         <f t="shared" si="9"/>
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D275">
+        <v>208481</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>31063</v>
       </c>
@@ -4020,8 +4831,11 @@
         <f t="shared" si="9"/>
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D276">
+        <v>291416</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>31027</v>
       </c>
@@ -4033,8 +4847,11 @@
         <f t="shared" si="9"/>
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D277">
+        <v>427894</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>31065</v>
       </c>
@@ -4046,8 +4863,11 @@
         <f t="shared" si="9"/>
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D278">
+        <v>768711</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>31012</v>
       </c>
@@ -4059,8 +4879,11 @@
         <f t="shared" si="9"/>
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D279">
+        <v>170186</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>31018</v>
       </c>
@@ -4072,8 +4895,11 @@
         <f t="shared" si="9"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D280">
+        <v>893092</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>52015</v>
       </c>
@@ -4085,8 +4911,11 @@
         <f t="shared" si="9"/>
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D281">
+        <v>399173</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>31020</v>
       </c>
@@ -4098,8 +4927,11 @@
         <f t="shared" si="9"/>
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D282">
+        <v>270777</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>31026</v>
       </c>
@@ -4111,8 +4943,11 @@
         <f t="shared" si="9"/>
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D283">
+        <v>174631</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>31023</v>
       </c>
@@ -4124,8 +4959,11 @@
         <f t="shared" si="9"/>
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D284">
+        <v>224808</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>31048</v>
       </c>
@@ -4137,8 +4975,11 @@
         <f t="shared" si="9"/>
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D285">
+        <v>279991</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>31044</v>
       </c>
@@ -4150,8 +4991,11 @@
         <f t="shared" si="9"/>
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D286">
+        <v>160332</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>31001</v>
       </c>
@@ -4163,8 +5007,11 @@
         <f t="shared" si="9"/>
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D287">
+        <v>158634</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>31064</v>
       </c>
@@ -4176,8 +5023,11 @@
         <f t="shared" si="9"/>
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D288">
+        <v>290926</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>31015</v>
       </c>
@@ -4189,8 +5039,11 @@
         <f t="shared" si="9"/>
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D289">
+        <v>271229</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>31025</v>
       </c>
@@ -4202,8 +5055,11 @@
         <f t="shared" si="9"/>
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D290">
+        <v>158727</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>31042</v>
       </c>
@@ -4215,8 +5071,11 @@
         <f t="shared" si="9"/>
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D291">
+        <v>86257</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>31030</v>
       </c>
@@ -4228,8 +5087,11 @@
         <f t="shared" si="9"/>
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D292">
+        <v>5157141</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>31032</v>
       </c>
@@ -4241,8 +5103,11 @@
         <f t="shared" si="9"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D293">
+        <v>48760</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>31050</v>
       </c>
@@ -4254,8 +5119,11 @@
         <f t="shared" si="9"/>
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D294">
+        <v>470701</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>31009</v>
       </c>
@@ -4267,8 +5135,11 @@
         <f t="shared" si="9"/>
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D295">
+        <v>73308</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>31040</v>
       </c>
@@ -4280,8 +5151,11 @@
         <f t="shared" si="9"/>
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D296">
+        <v>245076</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>31052</v>
       </c>
@@ -4293,8 +5167,11 @@
         <f t="shared" si="9"/>
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D297">
+        <v>357117</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>31046</v>
       </c>
@@ -4306,8 +5183,11 @@
         <f t="shared" si="9"/>
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D298">
+        <v>132998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>31003</v>
       </c>
@@ -4319,8 +5199,11 @@
         <f t="shared" si="9"/>
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D299">
+        <v>290597</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>31008</v>
       </c>
@@ -4332,8 +5215,11 @@
         <f t="shared" si="9"/>
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D300">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>31002</v>
       </c>
@@ -4345,8 +5231,11 @@
         <f t="shared" si="9"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D301">
+        <v>233973</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>31007</v>
       </c>
@@ -4358,8 +5247,11 @@
         <f t="shared" si="9"/>
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D302">
+        <v>649544</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>31035</v>
       </c>
@@ -4371,8 +5263,11 @@
         <f t="shared" si="9"/>
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D303">
+        <v>136460</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>31056</v>
       </c>
@@ -4384,8 +5279,11 @@
         <f t="shared" si="9"/>
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D304">
+        <v>203015</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>31006</v>
       </c>
@@ -4397,8 +5295,11 @@
         <f t="shared" si="9"/>
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D305">
+        <v>174782</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>31053</v>
       </c>
@@ -4410,8 +5311,11 @@
         <f t="shared" si="9"/>
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D306">
+        <v>145852</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>31013</v>
       </c>
@@ -4423,8 +5327,11 @@
         <f t="shared" si="9"/>
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D307">
+        <v>84871</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>31017</v>
       </c>
@@ -4436,8 +5343,11 @@
         <f t="shared" si="9"/>
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D308">
+        <v>152603</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>31021</v>
       </c>
@@ -4449,8 +5359,11 @@
         <f t="shared" si="9"/>
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D309">
+        <v>202892</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>31043</v>
       </c>
@@ -4462,8 +5375,11 @@
         <f t="shared" si="9"/>
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D310">
+        <v>548883</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>31057</v>
       </c>
@@ -4475,8 +5391,11 @@
         <f t="shared" si="9"/>
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D311">
+        <v>161245</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>31034</v>
       </c>
@@ -4488,8 +5407,11 @@
         <f t="shared" si="9"/>
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D312">
+        <v>272620</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>31004</v>
       </c>
@@ -4501,8 +5423,11 @@
         <f t="shared" si="9"/>
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D313">
+        <v>259705</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>31038</v>
       </c>
@@ -4514,8 +5439,11 @@
         <f t="shared" si="9"/>
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D314">
+        <v>65857</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>33005</v>
       </c>
@@ -4527,8 +5455,11 @@
         <f t="shared" si="9"/>
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D315">
+        <v>137044</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>35012</v>
       </c>
@@ -4540,8 +5471,11 @@
         <f t="shared" si="9"/>
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D316">
+        <v>422626</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>31058</v>
       </c>
@@ -4553,8 +5487,11 @@
         <f t="shared" si="9"/>
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D317">
+        <v>193783</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>31029</v>
       </c>
@@ -4566,8 +5503,11 @@
         <f t="shared" si="9"/>
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D318">
+        <v>140186</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>31010</v>
       </c>
@@ -4579,8 +5519,11 @@
         <f t="shared" si="9"/>
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D319">
+        <v>85784</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>35011</v>
       </c>
@@ -4592,8 +5535,11 @@
         <f t="shared" si="9"/>
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D320">
+        <v>111708</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>31033</v>
       </c>
@@ -4605,8 +5551,11 @@
         <f t="shared" si="9"/>
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D321">
+        <v>187922</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>33002</v>
       </c>
@@ -4618,8 +5567,11 @@
         <f t="shared" si="9"/>
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D322">
+        <v>134657</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>33012</v>
       </c>
@@ -4631,8 +5583,11 @@
         <f t="shared" si="9"/>
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D323">
+        <v>185623</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>32007</v>
       </c>
@@ -4644,8 +5599,11 @@
         <f t="shared" ref="C324:C387" si="11">C323+1</f>
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D324">
+        <v>144600</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>32001</v>
       </c>
@@ -4657,8 +5615,11 @@
         <f t="shared" si="11"/>
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D325">
+        <v>96419</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>32002</v>
       </c>
@@ -4670,8 +5631,11 @@
         <f t="shared" si="11"/>
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D326">
+        <v>137061</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>32011</v>
       </c>
@@ -4683,8 +5647,11 @@
         <f t="shared" si="11"/>
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D327">
+        <v>171426</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>32010</v>
       </c>
@@ -4696,8 +5663,11 @@
         <f t="shared" si="11"/>
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D328">
+        <v>211630</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>32003</v>
       </c>
@@ -4709,8 +5679,11 @@
         <f t="shared" si="11"/>
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D329">
+        <v>220456</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>32012</v>
       </c>
@@ -4722,8 +5695,11 @@
         <f t="shared" si="11"/>
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D330">
+        <v>355121</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>32006</v>
       </c>
@@ -4735,8 +5711,11 @@
         <f t="shared" si="11"/>
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D331">
+        <v>340634</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>33001</v>
       </c>
@@ -4748,8 +5727,11 @@
         <f t="shared" si="11"/>
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D332">
+        <v>211296</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>32009</v>
       </c>
@@ -4761,8 +5743,11 @@
         <f t="shared" si="11"/>
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D333">
+        <v>1813977</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>32005</v>
       </c>
@@ -4774,8 +5759,11 @@
         <f t="shared" si="11"/>
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D334">
+        <v>213276</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>32008</v>
       </c>
@@ -4787,8 +5775,11 @@
         <f t="shared" si="11"/>
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D335">
+        <v>114729</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>32013</v>
       </c>
@@ -4800,8 +5791,11 @@
         <f t="shared" si="11"/>
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D336">
+        <v>84282</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>32004</v>
       </c>
@@ -4813,8 +5807,11 @@
         <f t="shared" si="11"/>
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D337">
+        <v>59871</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>33013</v>
       </c>
@@ -4826,8 +5823,11 @@
         <f t="shared" si="11"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D338">
+        <v>232479</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>33010</v>
       </c>
@@ -4839,8 +5839,11 @@
         <f t="shared" si="11"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D339">
+        <v>522880</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>33015</v>
       </c>
@@ -4852,8 +5855,11 @@
         <f t="shared" si="11"/>
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D340">
+        <v>505820</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>33011</v>
       </c>
@@ -4865,8 +5871,11 @@
         <f t="shared" si="11"/>
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D341">
+        <v>702576</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>33018</v>
       </c>
@@ -4878,8 +5887,11 @@
         <f t="shared" si="11"/>
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D342">
+        <v>12340927</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>33007</v>
       </c>
@@ -4891,8 +5903,11 @@
         <f t="shared" si="11"/>
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D343">
+        <v>237824</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>33016</v>
       </c>
@@ -4904,8 +5919,11 @@
         <f t="shared" si="11"/>
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D344">
+        <v>114566</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>33003</v>
       </c>
@@ -4917,8 +5935,11 @@
         <f t="shared" si="11"/>
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D345">
+        <v>613544</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>33006</v>
       </c>
@@ -4930,8 +5951,11 @@
         <f t="shared" si="11"/>
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D346">
+        <v>64624</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>33004</v>
       </c>
@@ -4943,8 +5967,11 @@
         <f t="shared" si="11"/>
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D347">
+        <v>477997</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>33014</v>
       </c>
@@ -4956,8 +5983,11 @@
         <f t="shared" si="11"/>
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D348">
+        <v>119048</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>33008</v>
       </c>
@@ -4969,8 +5999,11 @@
         <f t="shared" si="11"/>
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D349">
+        <v>29624</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>33009</v>
       </c>
@@ -4982,8 +6015,11 @@
         <f t="shared" si="11"/>
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D350">
+        <v>21279</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>35035</v>
       </c>
@@ -4995,8 +6031,11 @@
         <f t="shared" si="11"/>
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D351">
+        <v>167490</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>35004</v>
       </c>
@@ -5008,8 +6047,11 @@
         <f t="shared" si="11"/>
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D352">
+        <v>844257</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>35029</v>
       </c>
@@ -5021,8 +6063,11 @@
         <f t="shared" si="11"/>
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D353">
+        <v>198430</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>35030</v>
       </c>
@@ -5034,8 +6079,11 @@
         <f t="shared" si="11"/>
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D354">
+        <v>430164</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>35033</v>
       </c>
@@ -5047,8 +6095,11 @@
         <f t="shared" si="11"/>
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D355">
+        <v>193636</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>35022</v>
       </c>
@@ -5060,8 +6111,11 @@
         <f t="shared" si="11"/>
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D356">
+        <v>194592</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>35028</v>
       </c>
@@ -5073,8 +6127,11 @@
         <f t="shared" si="11"/>
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D357">
+        <v>565579</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>35020</v>
       </c>
@@ -5086,8 +6143,11 @@
         <f t="shared" si="11"/>
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D358">
+        <v>604497</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>35042</v>
       </c>
@@ -5099,8 +6159,11 @@
         <f t="shared" si="11"/>
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D359">
+        <v>211764</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>35036</v>
       </c>
@@ -5112,8 +6175,11 @@
         <f t="shared" si="11"/>
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D360">
+        <v>607231</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>35015</v>
       </c>
@@ -5125,8 +6191,11 @@
         <f t="shared" si="11"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D361">
+        <v>112076</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>35018</v>
       </c>
@@ -5138,8 +6207,11 @@
         <f t="shared" si="11"/>
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D362">
+        <v>280799</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>35046</v>
       </c>
@@ -5151,8 +6223,11 @@
         <f t="shared" si="11"/>
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D363">
+        <v>1385559</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>35003</v>
       </c>
@@ -5164,8 +6239,11 @@
         <f t="shared" si="11"/>
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D364">
+        <v>154143</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>35038</v>
       </c>
@@ -5177,8 +6255,11 @@
         <f t="shared" si="11"/>
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D365">
+        <v>358166</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>35032</v>
       </c>
@@ -5190,8 +6271,11 @@
         <f t="shared" si="11"/>
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D366">
+        <v>2914292</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>35024</v>
       </c>
@@ -5203,8 +6287,11 @@
         <f t="shared" si="11"/>
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D367">
+        <v>546151</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>35025</v>
       </c>
@@ -5216,8 +6303,11 @@
         <f t="shared" si="11"/>
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D368">
+        <v>337492</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>35016</v>
       </c>
@@ -5229,8 +6319,11 @@
         <f t="shared" si="11"/>
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D369">
+        <v>191692</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>35023</v>
       </c>
@@ -5242,8 +6335,11 @@
         <f t="shared" si="11"/>
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D370">
+        <v>227808</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>35051</v>
       </c>
@@ -5255,8 +6351,11 @@
         <f t="shared" si="11"/>
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D371">
+        <v>429708</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>35001</v>
       </c>
@@ -5268,8 +6367,11 @@
         <f t="shared" si="11"/>
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D372">
+        <v>155532</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>35044</v>
       </c>
@@ -5281,8 +6383,11 @@
         <f t="shared" si="11"/>
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D373">
+        <v>132865</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>35017</v>
       </c>
@@ -5294,8 +6399,11 @@
         <f t="shared" si="11"/>
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D374">
+        <v>280566</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>35052</v>
       </c>
@@ -5307,8 +6415,11 @@
         <f t="shared" si="11"/>
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D375">
+        <v>27582</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>35027</v>
       </c>
@@ -5320,8 +6431,11 @@
         <f t="shared" si="11"/>
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D376">
+        <v>607246</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>35037</v>
       </c>
@@ -5333,8 +6447,11 @@
         <f t="shared" si="11"/>
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D377">
+        <v>107660</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>35005</v>
       </c>
@@ -5346,8 +6463,11 @@
         <f t="shared" si="11"/>
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D378">
+        <v>241575</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>35031</v>
       </c>
@@ -5359,8 +6479,11 @@
         <f t="shared" si="11"/>
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D379">
+        <v>431117</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>35061</v>
       </c>
@@ -5372,8 +6495,11 @@
         <f t="shared" si="11"/>
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D380">
+        <v>21183438</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>35039</v>
       </c>
@@ -5385,8 +6511,11 @@
         <f t="shared" si="11"/>
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D381">
+        <v>281234</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>35048</v>
       </c>
@@ -5398,8 +6527,11 @@
         <f t="shared" si="11"/>
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D382">
+        <v>526660</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>35006</v>
       </c>
@@ -5411,8 +6543,11 @@
         <f t="shared" si="11"/>
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D383">
+        <v>47316</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>35041</v>
       </c>
@@ -5424,8 +6559,11 @@
         <f t="shared" si="11"/>
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D384">
+        <v>252384</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>35021</v>
       </c>
@@ -5437,8 +6575,11 @@
         <f t="shared" si="11"/>
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D385">
+        <v>375578</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>35055</v>
       </c>
@@ -5450,8 +6591,11 @@
         <f t="shared" si="11"/>
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D386">
+        <v>252187</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>35009</v>
       </c>
@@ -5463,8 +6607,11 @@
         <f t="shared" si="11"/>
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D387">
+        <v>138259</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>35014</v>
       </c>
@@ -5476,8 +6623,11 @@
         <f t="shared" ref="C388:C451" si="13">C387+1</f>
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D388">
+        <v>1152915</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>35013</v>
       </c>
@@ -5489,8 +6639,11 @@
         <f t="shared" si="13"/>
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D389">
+        <v>433099</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>35040</v>
       </c>
@@ -5502,8 +6655,11 @@
         <f t="shared" si="13"/>
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D390">
+        <v>309251</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>35063</v>
       </c>
@@ -5515,8 +6671,11 @@
         <f t="shared" si="13"/>
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D391">
+        <v>1747126</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>35043</v>
       </c>
@@ -5528,8 +6687,11 @@
         <f t="shared" si="13"/>
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D392">
+        <v>364145</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>35026</v>
       </c>
@@ -5541,8 +6703,11 @@
         <f t="shared" si="13"/>
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D393">
+        <v>288665</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>35047</v>
       </c>
@@ -5554,8 +6719,11 @@
         <f t="shared" si="13"/>
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D394">
+        <v>780927</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>35050</v>
       </c>
@@ -5567,8 +6735,11 @@
         <f t="shared" si="13"/>
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D395">
+        <v>1567630</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>35019</v>
       </c>
@@ -5580,8 +6751,11 @@
         <f t="shared" si="13"/>
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D396">
+        <v>172304</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>35049</v>
       </c>
@@ -5593,8 +6767,11 @@
         <f t="shared" si="13"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D397">
+        <v>68821</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>35054</v>
       </c>
@@ -5606,8 +6783,11 @@
         <f t="shared" si="13"/>
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D398">
+        <v>319511</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>35053</v>
       </c>
@@ -5619,8 +6799,11 @@
         <f t="shared" si="13"/>
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D399">
+        <v>62627</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>35034</v>
       </c>
@@ -5632,8 +6815,11 @@
         <f t="shared" si="13"/>
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D400">
+        <v>124089</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>35002</v>
       </c>
@@ -5645,8 +6831,11 @@
         <f t="shared" si="13"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D401">
+        <v>110263</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>35010</v>
       </c>
@@ -5658,8 +6847,11 @@
         <f t="shared" si="13"/>
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D402">
+        <v>228836</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>35062</v>
       </c>
@@ -5671,8 +6863,11 @@
         <f t="shared" si="13"/>
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D403">
+        <v>28664</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>35045</v>
       </c>
@@ -5684,8 +6879,11 @@
         <f t="shared" si="13"/>
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D404">
+        <v>201278</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>35008</v>
       </c>
@@ -5697,8 +6895,11 @@
         <f t="shared" si="13"/>
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D405">
+        <v>82581</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>35056</v>
       </c>
@@ -5710,8 +6911,11 @@
         <f t="shared" si="13"/>
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D406">
+        <v>93873</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>35060</v>
       </c>
@@ -5723,8 +6927,11 @@
         <f t="shared" si="13"/>
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D407">
+        <v>30837</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>35007</v>
       </c>
@@ -5736,8 +6943,11 @@
         <f t="shared" si="13"/>
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D408">
+        <v>56112</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>41035</v>
       </c>
@@ -5749,8 +6959,11 @@
         <f t="shared" si="13"/>
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D409">
+        <v>33307</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>41015</v>
       </c>
@@ -5762,8 +6975,11 @@
         <f t="shared" si="13"/>
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D410">
+        <v>175510</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>41039</v>
       </c>
@@ -5775,8 +6991,11 @@
         <f t="shared" si="13"/>
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D411">
+        <v>63908</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>41037</v>
       </c>
@@ -5788,8 +7007,11 @@
         <f t="shared" si="13"/>
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D412">
+        <v>3362636</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>41004</v>
       </c>
@@ -5801,8 +7023,11 @@
         <f t="shared" si="13"/>
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D413">
+        <v>114639</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>41002</v>
       </c>
@@ -5814,8 +7039,11 @@
         <f t="shared" si="13"/>
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D414">
+        <v>277906</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>41001</v>
       </c>
@@ -5827,8 +7055,11 @@
         <f t="shared" si="13"/>
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D415">
+        <v>286640</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>41007</v>
       </c>
@@ -5840,8 +7071,11 @@
         <f t="shared" si="13"/>
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D416">
+        <v>85057</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>41025</v>
       </c>
@@ -5853,8 +7087,11 @@
         <f t="shared" si="13"/>
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D417">
+        <v>93845</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>41023</v>
       </c>
@@ -5866,8 +7103,11 @@
         <f t="shared" si="13"/>
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D418">
+        <v>466570</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>41006</v>
       </c>
@@ -5879,8 +7119,11 @@
         <f t="shared" si="13"/>
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D419">
+        <v>164106</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>41038</v>
       </c>
@@ -5892,8 +7135,11 @@
         <f t="shared" si="13"/>
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D420">
+        <v>289169</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>41034</v>
       </c>
@@ -5905,8 +7151,11 @@
         <f t="shared" si="13"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D421">
+        <v>67397</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>41010</v>
       </c>
@@ -5918,8 +7167,11 @@
         <f t="shared" si="13"/>
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D422">
+        <v>314606</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>41020</v>
       </c>
@@ -5931,8 +7183,11 @@
         <f t="shared" si="13"/>
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D423">
+        <v>106865</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>41013</v>
       </c>
@@ -5944,8 +7199,11 @@
         <f t="shared" si="13"/>
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D424">
+        <v>136714</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>41005</v>
       </c>
@@ -5957,8 +7215,11 @@
         <f t="shared" si="13"/>
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D425">
+        <v>225148</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>41014</v>
       </c>
@@ -5970,8 +7231,11 @@
         <f t="shared" si="13"/>
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D426">
+        <v>63571</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>41022</v>
       </c>
@@ -5983,8 +7247,11 @@
         <f t="shared" si="13"/>
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D427">
+        <v>407741</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>41016</v>
       </c>
@@ -5996,8 +7263,11 @@
         <f t="shared" si="13"/>
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D428">
+        <v>128315</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>42001</v>
       </c>
@@ -6009,8 +7279,11 @@
         <f t="shared" si="13"/>
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D429">
+        <v>193198</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>41033</v>
       </c>
@@ -6022,8 +7295,11 @@
         <f t="shared" si="13"/>
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D430">
+        <v>158382</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>41026</v>
       </c>
@@ -6035,8 +7311,11 @@
         <f t="shared" si="13"/>
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D431">
+        <v>253178</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>41028</v>
       </c>
@@ -6048,8 +7327,11 @@
         <f t="shared" si="13"/>
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D432">
+        <v>73952</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>41012</v>
       </c>
@@ -6061,8 +7343,11 @@
         <f t="shared" si="13"/>
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D433">
+        <v>47240</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>41027</v>
       </c>
@@ -6074,8 +7359,11 @@
         <f t="shared" si="13"/>
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D434">
+        <v>169315</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>41011</v>
       </c>
@@ -6087,8 +7375,11 @@
         <f t="shared" si="13"/>
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D435">
+        <v>804467</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>41029</v>
       </c>
@@ -6100,8 +7391,11 @@
         <f t="shared" si="13"/>
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D436">
+        <v>398317</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>41021</v>
       </c>
@@ -6113,8 +7407,11 @@
         <f t="shared" si="13"/>
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D437">
+        <v>468117</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>41018</v>
       </c>
@@ -6126,8 +7423,11 @@
         <f t="shared" si="13"/>
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D438">
+        <v>103040</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>41024</v>
       </c>
@@ -6139,8 +7439,11 @@
         <f t="shared" si="13"/>
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D439">
+        <v>427754</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>41003</v>
       </c>
@@ -6152,8 +7455,11 @@
         <f t="shared" si="13"/>
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D440">
+        <v>155856</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>41030</v>
       </c>
@@ -6165,8 +7471,11 @@
         <f t="shared" si="13"/>
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D441">
+        <v>96263</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>41017</v>
       </c>
@@ -6178,8 +7487,11 @@
         <f t="shared" si="13"/>
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D442">
+        <v>81513</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>41008</v>
       </c>
@@ -6191,8 +7503,11 @@
         <f t="shared" si="13"/>
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D443">
+        <v>20067</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>41031</v>
       </c>
@@ -6204,8 +7519,11 @@
         <f t="shared" si="13"/>
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D444">
+        <v>138160</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>41009</v>
       </c>
@@ -6217,8 +7535,11 @@
         <f t="shared" si="13"/>
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D445">
+        <v>650877</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>41019</v>
       </c>
@@ -6230,8 +7551,11 @@
         <f t="shared" si="13"/>
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D446">
+        <v>170773</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>41032</v>
       </c>
@@ -6243,8 +7567,11 @@
         <f t="shared" si="13"/>
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D447">
+        <v>103719</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>41036</v>
       </c>
@@ -6256,8 +7583,11 @@
         <f t="shared" si="13"/>
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D448">
+        <v>52623</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>42006</v>
       </c>
@@ -6269,8 +7599,11 @@
         <f t="shared" si="13"/>
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D449">
+        <v>253192</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>42009</v>
       </c>
@@ -6282,8 +7615,11 @@
         <f t="shared" si="13"/>
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D450">
+        <v>124730</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>42003</v>
       </c>
@@ -6295,8 +7631,11 @@
         <f t="shared" si="13"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D451">
+        <v>161242</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>42014</v>
       </c>
@@ -6308,8 +7647,11 @@
         <f t="shared" ref="C452:C515" si="15">C451+1</f>
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D452">
+        <v>59470</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>42011</v>
       </c>
@@ -6321,8 +7663,11 @@
         <f t="shared" si="15"/>
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D453">
+        <v>222223</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>42004</v>
       </c>
@@ -6334,8 +7679,11 @@
         <f t="shared" si="15"/>
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D454">
+        <v>349617</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>42002</v>
       </c>
@@ -6347,8 +7695,11 @@
         <f t="shared" si="15"/>
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D455">
+        <v>439032</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>42016</v>
       </c>
@@ -6360,8 +7711,11 @@
         <f t="shared" si="15"/>
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D456">
+        <v>1004302</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>42017</v>
       </c>
@@ -6373,8 +7727,11 @@
         <f t="shared" si="15"/>
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D457">
+        <v>18938</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>42005</v>
       </c>
@@ -6386,8 +7743,11 @@
         <f t="shared" si="15"/>
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D458">
+        <v>146847</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>42015</v>
       </c>
@@ -6399,8 +7759,11 @@
         <f t="shared" si="15"/>
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D459">
+        <v>107302</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>42010</v>
       </c>
@@ -6412,8 +7775,11 @@
         <f t="shared" si="15"/>
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D460">
+        <v>287951</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>42012</v>
       </c>
@@ -6425,8 +7791,11 @@
         <f t="shared" si="15"/>
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D461">
+        <v>783854</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>42008</v>
       </c>
@@ -6438,8 +7807,11 @@
         <f t="shared" si="15"/>
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D462">
+        <v>959345</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>42020</v>
       </c>
@@ -6451,8 +7823,11 @@
         <f t="shared" si="15"/>
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D463">
+        <v>188705</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>42018</v>
       </c>
@@ -6464,8 +7839,11 @@
         <f t="shared" si="15"/>
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D464">
+        <v>404558</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>42013</v>
       </c>
@@ -6477,8 +7855,11 @@
         <f t="shared" si="15"/>
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D465">
+        <v>671441</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>42019</v>
       </c>
@@ -6490,8 +7871,11 @@
         <f t="shared" si="15"/>
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D466">
+        <v>405934</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>42007</v>
       </c>
@@ -6503,8 +7887,11 @@
         <f t="shared" si="15"/>
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D467">
+        <v>135712</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>43027</v>
       </c>
@@ -6516,8 +7903,11 @@
         <f t="shared" si="15"/>
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D468">
+        <v>379122</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>43031</v>
       </c>
@@ -6529,8 +7919,11 @@
         <f t="shared" si="15"/>
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D469">
+        <v>190273</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>43010</v>
       </c>
@@ -6542,8 +7935,11 @@
         <f t="shared" si="15"/>
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D470">
+        <v>350264</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>43019</v>
       </c>
@@ -6555,8 +7951,11 @@
         <f t="shared" si="15"/>
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D471">
+        <v>64568</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>43008</v>
       </c>
@@ -6568,8 +7967,11 @@
         <f t="shared" si="15"/>
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D472">
+        <v>192484</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>43001</v>
       </c>
@@ -6581,8 +7983,11 @@
         <f t="shared" si="15"/>
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D473">
+        <v>161787</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>43029</v>
       </c>
@@ -6594,8 +7999,11 @@
         <f t="shared" si="15"/>
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D474">
+        <v>372500</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>43009</v>
       </c>
@@ -6607,8 +8015,11 @@
         <f t="shared" si="15"/>
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D475">
+        <v>166464</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>43003</v>
       </c>
@@ -6620,8 +8031,11 @@
         <f t="shared" si="15"/>
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D476">
+        <v>177680</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>43011</v>
       </c>
@@ -6633,8 +8047,11 @@
         <f t="shared" si="15"/>
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D477">
+        <v>153983</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>43023</v>
       </c>
@@ -6646,8 +8063,11 @@
         <f t="shared" si="15"/>
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D478">
+        <v>138601</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>43026</v>
       </c>
@@ -6659,8 +8079,11 @@
         <f t="shared" si="15"/>
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D479">
+        <v>3932334</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>43032</v>
       </c>
@@ -6672,8 +8095,11 @@
         <f t="shared" si="15"/>
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D480">
+        <v>111568</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>43014</v>
       </c>
@@ -6685,8 +8111,11 @@
         <f t="shared" si="15"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D481">
+        <v>136314</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>43016</v>
       </c>
@@ -6698,8 +8127,11 @@
         <f t="shared" si="15"/>
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D482">
+        <v>852794</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>43028</v>
       </c>
@@ -6711,8 +8143,11 @@
         <f t="shared" si="15"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D483">
+        <v>137892</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>43004</v>
       </c>
@@ -6724,8 +8159,11 @@
         <f t="shared" si="15"/>
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D484">
+        <v>219279</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>43021</v>
       </c>
@@ -6737,8 +8175,11 @@
         <f t="shared" si="15"/>
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D485">
+        <v>327471</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>43033</v>
       </c>
@@ -6750,8 +8191,11 @@
         <f t="shared" si="15"/>
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D486">
+        <v>504900</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>43020</v>
       </c>
@@ -6763,8 +8207,11 @@
         <f t="shared" si="15"/>
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D487">
+        <v>340361</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>43025</v>
       </c>
@@ -6776,8 +8223,11 @@
         <f t="shared" si="15"/>
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D488">
+        <v>153345</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>43034</v>
       </c>
@@ -6789,8 +8239,11 @@
         <f t="shared" si="15"/>
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D489">
+        <v>54143</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>43005</v>
       </c>
@@ -6802,8 +8255,11 @@
         <f t="shared" si="15"/>
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D490">
+        <v>62287</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>43013</v>
       </c>
@@ -6815,8 +8271,11 @@
         <f t="shared" si="15"/>
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D491">
+        <v>74056</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>43002</v>
       </c>
@@ -6828,8 +8287,11 @@
         <f t="shared" si="15"/>
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D492">
+        <v>143594</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>43015</v>
       </c>
@@ -6841,8 +8303,11 @@
         <f t="shared" si="15"/>
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D493">
+        <v>158235</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>43007</v>
       </c>
@@ -6854,8 +8319,11 @@
         <f t="shared" si="15"/>
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D494">
+        <v>200304</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>43018</v>
       </c>
@@ -6867,8 +8335,11 @@
         <f t="shared" si="15"/>
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D495">
+        <v>381843</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>43022</v>
       </c>
@@ -6880,8 +8351,11 @@
         <f t="shared" si="15"/>
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D496">
+        <v>157307</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>43006</v>
       </c>
@@ -6893,8 +8367,11 @@
         <f t="shared" si="15"/>
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D497">
+        <v>67208</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>43024</v>
       </c>
@@ -6906,8 +8383,11 @@
         <f t="shared" si="15"/>
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D498">
+        <v>304147</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>43017</v>
       </c>
@@ -6919,8 +8399,11 @@
         <f t="shared" si="15"/>
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D499">
+        <v>114761</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>43035</v>
       </c>
@@ -6932,8 +8415,11 @@
         <f t="shared" si="15"/>
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D500">
+        <v>273501</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>43012</v>
       </c>
@@ -6945,8 +8431,11 @@
         <f t="shared" si="15"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D501">
+        <v>44184</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>43030</v>
       </c>
@@ -6958,8 +8447,11 @@
         <f t="shared" si="15"/>
         <v>501</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D502">
+        <v>188762</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>50007</v>
       </c>
@@ -6971,8 +8463,11 @@
         <f t="shared" si="15"/>
         <v>502</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D503">
+        <v>173387</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>50003</v>
       </c>
@@ -6984,8 +8479,11 @@
         <f t="shared" si="15"/>
         <v>503</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D504">
+        <v>125714</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>50010</v>
       </c>
@@ -6997,8 +8495,11 @@
         <f t="shared" si="15"/>
         <v>504</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D505">
+        <v>558403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>50002</v>
       </c>
@@ -7010,8 +8511,11 @@
         <f t="shared" si="15"/>
         <v>505</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D506">
+        <v>110540</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>50008</v>
       </c>
@@ -7023,8 +8527,11 @@
         <f t="shared" si="15"/>
         <v>506</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D507">
+        <v>97531</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>50011</v>
       </c>
@@ -7036,8 +8543,11 @@
         <f t="shared" si="15"/>
         <v>507</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D508">
+        <v>242110</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>50006</v>
       </c>
@@ -7049,8 +8559,11 @@
         <f t="shared" si="15"/>
         <v>508</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D509">
+        <v>80481</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>50004</v>
       </c>
@@ -7062,8 +8575,11 @@
         <f t="shared" si="15"/>
         <v>509</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D510">
+        <v>966860</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>50009</v>
       </c>
@@ -7075,8 +8591,11 @@
         <f t="shared" si="15"/>
         <v>510</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D511">
+        <v>109097</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>50005</v>
       </c>
@@ -7088,8 +8607,11 @@
         <f t="shared" si="15"/>
         <v>511</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D512">
+        <v>70055</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>50001</v>
       </c>
@@ -7101,8 +8623,11 @@
         <f t="shared" si="15"/>
         <v>512</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D513">
+        <v>148208</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>51016</v>
       </c>
@@ -7114,8 +8639,11 @@
         <f t="shared" si="15"/>
         <v>513</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D514">
+        <v>30278</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>51010</v>
       </c>
@@ -7127,8 +8655,11 @@
         <f t="shared" si="15"/>
         <v>514</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D515">
+        <v>109827</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>51002</v>
       </c>
@@ -7140,8 +8671,11 @@
         <f t="shared" ref="C516:C553" si="17">C515+1</f>
         <v>515</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D516">
+        <v>103591</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>51022</v>
       </c>
@@ -7153,8 +8687,11 @@
         <f t="shared" si="17"/>
         <v>516</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D517">
+        <v>47256</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>51009</v>
       </c>
@@ -7166,8 +8703,11 @@
         <f t="shared" si="17"/>
         <v>517</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D518">
+        <v>124904</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>51015</v>
       </c>
@@ -7179,8 +8719,11 @@
         <f t="shared" si="17"/>
         <v>518</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D519">
+        <v>32538</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>51011</v>
       </c>
@@ -7192,8 +8735,11 @@
         <f t="shared" si="17"/>
         <v>519</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D520">
+        <v>93277</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>51020</v>
       </c>
@@ -7205,8 +8751,11 @@
         <f t="shared" si="17"/>
         <v>520</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D521">
+        <v>52739</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>51014</v>
       </c>
@@ -7218,8 +8767,11 @@
         <f t="shared" si="17"/>
         <v>521</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D522">
+        <v>107801</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>51001</v>
       </c>
@@ -7231,8 +8783,11 @@
         <f t="shared" si="17"/>
         <v>522</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D523">
+        <v>158779</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>51018</v>
       </c>
@@ -7244,8 +8799,11 @@
         <f t="shared" si="17"/>
         <v>523</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D524">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>51013</v>
       </c>
@@ -7257,8 +8815,11 @@
         <f t="shared" si="17"/>
         <v>524</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D525">
+        <v>161588</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>51004</v>
       </c>
@@ -7270,8 +8831,11 @@
         <f t="shared" si="17"/>
         <v>525</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D526">
+        <v>103492</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>51019</v>
       </c>
@@ -7283,8 +8847,11 @@
         <f t="shared" si="17"/>
         <v>526</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D527">
+        <v>97184</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>51017</v>
       </c>
@@ -7296,8 +8863,11 @@
         <f t="shared" si="17"/>
         <v>527</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D528">
+        <v>906316</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>51007</v>
       </c>
@@ -7309,8 +8879,11 @@
         <f t="shared" si="17"/>
         <v>528</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D529">
+        <v>194473</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>51003</v>
       </c>
@@ -7322,8 +8895,11 @@
         <f t="shared" si="17"/>
         <v>529</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D530">
+        <v>150531</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>51012</v>
       </c>
@@ -7335,8 +8911,11 @@
         <f t="shared" si="17"/>
         <v>530</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D531">
+        <v>72021</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>51021</v>
       </c>
@@ -7348,8 +8927,11 @@
         <f t="shared" si="17"/>
         <v>531</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D532">
+        <v>302259</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>51008</v>
       </c>
@@ -7361,8 +8943,11 @@
         <f t="shared" si="17"/>
         <v>532</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D533">
+        <v>35035</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>51006</v>
       </c>
@@ -7374,8 +8959,11 @@
         <f t="shared" si="17"/>
         <v>533</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D534">
+        <v>238340</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>51005</v>
       </c>
@@ -7387,8 +8975,11 @@
         <f t="shared" si="17"/>
         <v>534</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D535">
+        <v>79669</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>52010</v>
       </c>
@@ -7400,8 +8991,11 @@
         <f t="shared" si="17"/>
         <v>535</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D536">
+        <v>2409320</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>52012</v>
       </c>
@@ -7413,8 +9007,11 @@
         <f t="shared" si="17"/>
         <v>536</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D537">
+        <v>295637</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>52014</v>
       </c>
@@ -7426,8 +9023,11 @@
         <f t="shared" si="17"/>
         <v>537</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D538">
+        <v>118218</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>52009</v>
       </c>
@@ -7439,8 +9039,11 @@
         <f t="shared" si="17"/>
         <v>538</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D539">
+        <v>116745</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>53001</v>
       </c>
@@ -7452,8 +9055,11 @@
         <f t="shared" si="17"/>
         <v>539</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D540">
+        <v>3886702</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>52004</v>
       </c>
@@ -7465,8 +9071,11 @@
         <f t="shared" si="17"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D541">
+        <v>241009</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>52005</v>
       </c>
@@ -7478,8 +9087,11 @@
         <f t="shared" si="17"/>
         <v>541</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D542">
+        <v>67994</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>52011</v>
       </c>
@@ -7491,8 +9103,11 @@
         <f t="shared" si="17"/>
         <v>542</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D543">
+        <v>118384</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>52008</v>
       </c>
@@ -7504,8 +9119,11 @@
         <f t="shared" si="17"/>
         <v>543</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D544">
+        <v>59230</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>52007</v>
       </c>
@@ -7517,8 +9135,11 @@
         <f t="shared" si="17"/>
         <v>544</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D545">
+        <v>582054</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>52017</v>
       </c>
@@ -7530,8 +9151,11 @@
         <f t="shared" si="17"/>
         <v>545</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D546">
+        <v>166524</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>52013</v>
       </c>
@@ -7543,8 +9167,11 @@
         <f t="shared" si="17"/>
         <v>546</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D547">
+        <v>512568</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>52002</v>
       </c>
@@ -7556,8 +9183,11 @@
         <f t="shared" si="17"/>
         <v>547</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D548">
+        <v>89406</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>52003</v>
       </c>
@@ -7569,8 +9199,11 @@
         <f t="shared" si="17"/>
         <v>548</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D549">
+        <v>33741</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>52006</v>
       </c>
@@ -7582,8 +9215,11 @@
         <f t="shared" si="17"/>
         <v>549</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D550">
+        <v>247830</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>52018</v>
       </c>
@@ -7595,8 +9231,11 @@
         <f t="shared" si="17"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D551">
+        <v>122993</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>52016</v>
       </c>
@@ -7608,8 +9247,11 @@
         <f t="shared" si="17"/>
         <v>551</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D552">
+        <v>99623</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>52001</v>
       </c>
@@ -7620,6 +9262,9 @@
       <c r="C553">
         <f t="shared" si="17"/>
         <v>552</v>
+      </c>
+      <c r="D553">
+        <v>80270</v>
       </c>
     </row>
   </sheetData>
